--- a/Income/RCL_inc.xlsx
+++ b/Income/RCL_inc.xlsx
@@ -1854,16 +1854,16 @@
         <v>-0.8081</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-0.111</v>
+        <v>-0.0441</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.2139</v>
+        <v>0.2536</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.3569</v>
+        <v>0.3867</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.4177</v>
+        <v>0.4464</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.4481</v>
@@ -1981,7 +1981,7 @@
         <v>-2.0831</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-0.7003</v>
+        <v>-0.7002</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>-0.1768</v>
@@ -2108,13 +2108,13 @@
         <v>-2.6143</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>-0.8798</v>
+        <v>-0.8796</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>-0.2399</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0202</v>
+        <v>0.0203</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.1742</v>
@@ -2235,7 +2235,7 @@
         <v>-2.6243</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>-0.886</v>
+        <v>-0.8859</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>-0.2435</v>
@@ -2362,7 +2362,7 @@
         <v>-2.5663</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-0.9704</v>
+        <v>-0.9703</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>-0.389</v>
@@ -3378,16 +3378,16 @@
         <v>-0.7492</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>-0.1166</v>
+        <v>-0.1141</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.1554</v>
+        <v>0.1568</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.2748</v>
+        <v>0.2759</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.3087</v>
+        <v>0.3098</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.3174</v>
